--- a/ofertas.xlsx
+++ b/ofertas.xlsx
@@ -1,40 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+  <si>
+    <t>ID Dirección</t>
+  </si>
+  <si>
+    <t>Nombre Cliente</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Fecha Envío</t>
+  </si>
+  <si>
+    <t>Apartment ID</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Letra</t>
+  </si>
+  <si>
+    <t>Código Postal</t>
+  </si>
+  <si>
+    <t>Dirección Alternativa</t>
+  </si>
+  <si>
+    <t>Es Serviciable</t>
+  </si>
+  <si>
+    <t>Motivo No Serviciable</t>
+  </si>
+  <si>
+    <t>Contiene Incidencias</t>
+  </si>
+  <si>
+    <t>Motivo Incidencia</t>
+  </si>
+  <si>
+    <t>N/D</t>
+  </si>
+  <si>
+    <t>sdsss</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>666666666</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>sssss</t>
+  </si>
+  <si>
+    <t>fghfgh</t>
+  </si>
+  <si>
+    <t>Cantabria</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Calle Mayor</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>39001</t>
+  </si>
+  <si>
+    <t>dfghfdg</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +177,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,149 +494,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID Dirección</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre Cliente</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Correo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dirección</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Observaciones</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Latitud</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Longitud</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Envío</t>
-        </is>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>N/D</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sdsss</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ssss</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sssss</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ssss</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
         <v>43.47293872</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-5.303353917</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>45705.41358883102</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>N/D</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
         <v>43.47293872</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-5.303353917</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>45705.43105720833</v>
+      <c r="I3" s="2">
+        <v>45705.43105721065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>43.42296284866612</v>
+      </c>
+      <c r="H4">
+        <v>-3.683935015</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45706.58261092593</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>39001</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>43.42296284866612</v>
+      </c>
+      <c r="H5">
+        <v>-3.683935015</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45706.58270330561</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ofertas.xlsx
+++ b/ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>ID Dirección</t>
   </si>
@@ -91,6 +91,9 @@
     <t>asd</t>
   </si>
   <si>
+    <t>aaa</t>
+  </si>
+  <si>
     <t>ssss</t>
   </si>
   <si>
@@ -106,25 +109,37 @@
     <t>fghfgh</t>
   </si>
   <si>
+    <t>aaaa</t>
+  </si>
+  <si>
     <t>Cantabria</t>
   </si>
   <si>
+    <t>CANTABRIA</t>
+  </si>
+  <si>
     <t>Santander</t>
   </si>
   <si>
+    <t>RIBAMONTÃN AL MONTE</t>
+  </si>
+  <si>
     <t>Centro</t>
   </si>
   <si>
+    <t>PONTONES</t>
+  </si>
+  <si>
     <t>Calle Mayor</t>
   </si>
   <si>
-    <t>12</t>
+    <t>99999</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>39001</t>
+    <t>39793</t>
   </si>
   <si>
     <t>dfghfdg</t>
@@ -495,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,16 +592,16 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>43.47293872</v>
@@ -632,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>43.42296284866612</v>
@@ -650,34 +665,34 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O4">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>39001</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -685,10 +700,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>43.42296284866612</v>
@@ -697,37 +712,87 @@
         <v>-3.683935015</v>
       </c>
       <c r="I5" s="2">
-        <v>45706.58270330561</v>
+        <v>45706.58270331019</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>39001</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="G6">
+        <v>43.42296284866612</v>
+      </c>
+      <c r="H6">
+        <v>-3.683935015</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45706.59697426638</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="S5" t="s">
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
         <v>39</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
